--- a/biology/Botanique/Aralidiaceae/Aralidiaceae.xlsx
+++ b/biology/Botanique/Aralidiaceae/Aralidiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aralidiacées sont une petite famille de plantes dicotylédones.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Aralidium (en), qui dérive de Aralia, nom de genre dont l'hypothétique origine canadienne n'est pas claire[1], et du suffixe latin -ium, « relatif à », probablement en référence aux caractères communs que cette plante partage avec les Araliacées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Aralidium (en), qui dérive de Aralia, nom de genre dont l'hypothétique origine canadienne n'est pas claire, et du suffixe latin -ium, « relatif à », probablement en référence aux caractères communs que cette plante partage avec les Araliacées.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est accepté par la classification phylogénétique APG (1998)[2] et la classification phylogénétique APG II (2003)[3], mais le Angiosperm Phylogeny Website [19 décembre 2006] n'accepte pas cette famille et inclut cette plantes dans les Torricelliacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est accepté par la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003), mais le Angiosperm Phylogeny Website [19 décembre 2006] n'accepte pas cette famille et inclut cette plantes dans les Torricelliacées.
 C'est une famille qui comprend une seule espèce : Aralidium pinnatifidum, du genre Aralidium, un arbre originaire de l'Asie du Sud-Est.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ce genre est incorporé dans la famille Torricelliaceae.
+En classification phylogénétique APG III (2009) cette famille est invalide et ce genre est incorporé dans la famille Torricelliaceae.
 </t>
         </is>
       </c>
